--- a/input/PriceVolume/bench_mark.xlsx
+++ b/input/PriceVolume/bench_mark.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Stock/Index Code</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,19 +50,99 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>601318.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平安集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600519.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州茅台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600036.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600887.SH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊利股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格力电器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>000333.SZ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>美的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600009.SH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海机场</t>
+    <t>美的集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000651.SZ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0914.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海螺水泥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0700.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1299.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>友邦保险</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0005.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇丰控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1177.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国生物制药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1918.HK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>融创中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯控股</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -444,6 +524,86 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
